--- a/biology/Botanique/Picea_breweriana/Picea_breweriana.xlsx
+++ b/biology/Botanique/Picea_breweriana/Picea_breweriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’épicéa de Brewer, Picea breweriana, est un épicéa originaire de l’ouest des États-Unis. C’est une des espèces américaines les plus rares, qui est placée sur la liste rouge de l'UICN. Cet épicéa est endémique des Klamath Mountains du sud-ouest de l’Oregon et du nord-ouest de la Californie.
-On le rencontre à moyenne altitude, entre 1000 et 2700 m d’altitude[1],[2],[3]. L’épicéa de Brewer croît sur une grande variété de sols : sédimentaires, granitiques, serpentiniques ou métavolcaniques. On le rencontre surtout sur des sols superficiels, peu développés (de type entisol)[4].
-Il y pousse principalement sur les crêtes abondamment enneigées en hiver, bien arrosées à la fonte des neiges et sèches en été. Ces conditions minimisent la compétition avec d’autres essences à croissance rapide comme le sapin de Douglas. Son port pleureur fait qu’il est bien adapté à supporter un fort enneigement[1],[2],[5].
+On le rencontre à moyenne altitude, entre 1000 et 2700 m d’altitude. L’épicéa de Brewer croît sur une grande variété de sols : sédimentaires, granitiques, serpentiniques ou métavolcaniques. On le rencontre surtout sur des sols superficiels, peu développés (de type entisol).
+Il y pousse principalement sur les crêtes abondamment enneigées en hiver, bien arrosées à la fonte des neiges et sèches en été. Ces conditions minimisent la compétition avec d’autres essences à croissance rapide comme le sapin de Douglas. Son port pleureur fait qu’il est bien adapté à supporter un fort enneigement.
 Ce conifère atteint à l’âge adulte 20 à 40 m, exceptionnellement 54 m de hauteur, avec un tronc pouvant atteindre 1,5 m de diamètre. L’écorce, fine et squameuse, est gris pourpré. La frondaison très caractéristique est constituée de branches disposées en étage dont les rameaux pleureurs, qui peuvent atteindre 2 m de longueur, tombent en franges épaisses.
-L’épicéa de Brewer pousse très lentement, environ 20 à 30 cm/an. Dans sa jeunesse l’arbre a une croissance en étages constituée de branches peu nombreuses avec des rameaux courts non pleureurs. Le feuillage pleureur n’apparaît que lorsque l’arbre, âgé de 10 à 20 ans, a atteint une taille de 1,5 à 2 m[6].
-Les jeunes rameaux sont brun orangé et couverts d’une pubescence dense. Les feuilles portées sur un coussinet, à disposition radiale sont des aiguilles de 15 à 35 mm de long, légèrement comprimées, vert foncé brillant à la face supérieure, et avec deux bandes blanches de stomates à la face inférieure[1],[2].
-Par son port pleureur harmonieux l’épicéa de Brewer est très apprécié dans les jardins et les parcs, particulièrement dans le nord de la Grande-Bretagne et en Scandinavie. Il dépasse rarement 15 m en culture[2],[6].
+L’épicéa de Brewer pousse très lentement, environ 20 à 30 cm/an. Dans sa jeunesse l’arbre a une croissance en étages constituée de branches peu nombreuses avec des rameaux courts non pleureurs. Le feuillage pleureur n’apparaît que lorsque l’arbre, âgé de 10 à 20 ans, a atteint une taille de 1,5 à 2 m.
+Les jeunes rameaux sont brun orangé et couverts d’une pubescence dense. Les feuilles portées sur un coussinet, à disposition radiale sont des aiguilles de 15 à 35 mm de long, légèrement comprimées, vert foncé brillant à la face supérieure, et avec deux bandes blanches de stomates à la face inférieure,.
+Par son port pleureur harmonieux l’épicéa de Brewer est très apprécié dans les jardins et les parcs, particulièrement dans le nord de la Grande-Bretagne et en Scandinavie. Il dépasse rarement 15 m en culture,.
 			Les rameaux pleureurs
 			Feuillage
 			Feuillage (gros plan)
